--- a/Software/Snowflake.xlsx
+++ b/Software/Snowflake.xlsx
@@ -8,21 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Negative FCF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010B1840-11B9-D945-AB64-582D7973BF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3DCAA9-CD44-4E44-81F9-8EE58207A3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25000" yWindow="500" windowWidth="26200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28740" yWindow="500" windowWidth="22460" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">'Sheet 1'!$B$106:$F$106</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">'Sheet 1'!$B$19:$F$19</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">'Sheet 1'!$B$3:$F$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -409,9 +401,6 @@
     <t>Debt to Equity</t>
   </si>
   <si>
-    <t>Share Dilution (5yr)</t>
-  </si>
-  <si>
     <t>P/S</t>
   </si>
   <si>
@@ -524,6 +513,9 @@
   </si>
   <si>
     <t>Shares + Dilution</t>
+  </si>
+  <si>
+    <t>Share Dilution (4yr)</t>
   </si>
 </sst>
 </file>
@@ -933,18 +925,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -982,12 +962,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1008,6 +982,24 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2385,10 +2377,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J78" sqref="J78"/>
+      <selection pane="bottomRight" activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2908,16 +2900,16 @@
         <v>2190386000</v>
       </c>
       <c r="L15" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M15" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="N15" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="O15" s="20" t="s">
         <v>124</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -2996,7 +2988,7 @@
         <v>67032000</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -4313,10 +4305,10 @@
       <c r="F83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M83" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="N83" s="35"/>
+      <c r="M83" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="N83" s="63"/>
     </row>
     <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4337,10 +4329,10 @@
       <c r="F84" s="1">
         <v>8024000</v>
       </c>
-      <c r="M84" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="N84" s="37"/>
+      <c r="M84" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="N84" s="65"/>
     </row>
     <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4362,7 +4354,7 @@
         <v>92</v>
       </c>
       <c r="M85" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N85" s="25">
         <f>F17</f>
@@ -4389,7 +4381,7 @@
         <v>92</v>
       </c>
       <c r="M86" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N86" s="25">
         <f>F56</f>
@@ -4416,7 +4408,7 @@
         <v>545639000</v>
       </c>
       <c r="M87" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N87" s="25">
         <f>F61</f>
@@ -4442,10 +4434,10 @@
       <c r="F88" s="1">
         <v>-25128000</v>
       </c>
-      <c r="M88" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="N88" s="39">
+      <c r="M88" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="N88" s="35">
         <f>N85/(N86+N87)</f>
         <v>0.29341010418901842</v>
       </c>
@@ -4528,10 +4520,10 @@
       <c r="F91" s="1">
         <v>-3854886000</v>
       </c>
-      <c r="M91" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="N91" s="39">
+      <c r="M91" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="N91" s="35">
         <f>N89/N90</f>
         <v>-2.263132159221954E-2</v>
       </c>
@@ -4555,10 +4547,10 @@
       <c r="F92" s="1">
         <v>3715885000</v>
       </c>
-      <c r="M92" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="N92" s="41">
+      <c r="M92" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="N92" s="37">
         <f>N88*(1-N91)</f>
         <v>0.30005036261532675</v>
       </c>
@@ -4582,10 +4574,10 @@
       <c r="F93" s="1">
         <v>-71147000</v>
       </c>
-      <c r="M93" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="N93" s="37"/>
+      <c r="M93" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="N93" s="65"/>
     </row>
     <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4607,9 +4599,9 @@
         <v>-597885000</v>
       </c>
       <c r="M94" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="N94" s="42">
+        <v>135</v>
+      </c>
+      <c r="N94" s="38">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -4632,10 +4624,10 @@
       <c r="F95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M95" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="N95" s="44">
+      <c r="M95" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="N95" s="40">
         <v>0.75</v>
       </c>
     </row>
@@ -4659,9 +4651,9 @@
         <v>92</v>
       </c>
       <c r="M96" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="N96" s="42">
+        <v>137</v>
+      </c>
+      <c r="N96" s="38">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -4684,10 +4676,10 @@
       <c r="F97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M97" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="N97" s="41">
+      <c r="M97" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="N97" s="37">
         <f>(N94)+((N95)*(N96-N94))</f>
         <v>7.3237500000000011E-2</v>
       </c>
@@ -4711,10 +4703,10 @@
       <c r="F98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M98" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="N98" s="37"/>
+      <c r="M98" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="N98" s="65"/>
     </row>
     <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -4736,7 +4728,7 @@
         <v>-92624000</v>
       </c>
       <c r="M99" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N99" s="25">
         <f>N86+N87</f>
@@ -4762,10 +4754,10 @@
       <c r="F100" s="10">
         <v>-92624000</v>
       </c>
-      <c r="M100" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="N100" s="39">
+      <c r="M100" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="N100" s="35">
         <f>N99/N103</f>
         <v>5.7945644872285105E-3</v>
       </c>
@@ -4790,9 +4782,9 @@
         <v>-933000</v>
       </c>
       <c r="M101" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="N101" s="45">
+        <v>142</v>
+      </c>
+      <c r="N101" s="41">
         <f>H116*F34</f>
         <v>43178353100</v>
       </c>
@@ -4816,10 +4808,10 @@
       <c r="F102" s="10">
         <v>-145803000</v>
       </c>
-      <c r="M102" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="N102" s="39">
+      <c r="M102" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="N102" s="35">
         <f>N101/N103</f>
         <v>0.99420543551277152</v>
       </c>
@@ -4843,10 +4835,10 @@
       <c r="F103" s="1">
         <v>1102534000</v>
       </c>
-      <c r="M103" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="N103" s="46">
+      <c r="M103" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="N103" s="42">
         <f>N99+N101</f>
         <v>43430011100</v>
       </c>
@@ -4870,10 +4862,10 @@
       <c r="F104" s="11">
         <v>956731000</v>
       </c>
-      <c r="M104" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="N104" s="37"/>
+      <c r="M104" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="N104" s="65"/>
     </row>
     <row r="105" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -4929,33 +4921,33 @@
       <c r="F106" s="1">
         <v>496499000</v>
       </c>
-      <c r="G106" s="47">
+      <c r="G106" s="43">
         <f>F106*(1+$N$106)</f>
         <v>676882897.20404243</v>
       </c>
-      <c r="H106" s="47">
+      <c r="H106" s="43">
         <f t="shared" ref="H106:K106" si="8">G106*(1+$N$106)</f>
         <v>922802375.28643203</v>
       </c>
-      <c r="I106" s="47">
+      <c r="I106" s="43">
         <f t="shared" si="8"/>
         <v>1258067277.7400401</v>
       </c>
-      <c r="J106" s="47">
+      <c r="J106" s="43">
         <f t="shared" si="8"/>
         <v>1715137842.8441567</v>
       </c>
-      <c r="K106" s="47">
+      <c r="K106" s="43">
         <f t="shared" si="8"/>
         <v>2338267493.3255544</v>
       </c>
-      <c r="L106" s="48" t="s">
+      <c r="L106" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="M106" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="M106" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="N106" s="50">
+      <c r="N106" s="46">
         <f>(SUM(G4:K4)/5)</f>
         <v>0.36331170295215576</v>
       </c>
@@ -4967,150 +4959,150 @@
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
-      <c r="G107" s="48"/>
-      <c r="H107" s="48"/>
-      <c r="I107" s="48"/>
-      <c r="J107" s="48"/>
-      <c r="K107" s="51">
+      <c r="G107" s="44"/>
+      <c r="H107" s="44"/>
+      <c r="I107" s="44"/>
+      <c r="J107" s="44"/>
+      <c r="K107" s="47">
         <f>K106*(1+N107)/(N108-N107)</f>
         <v>48368072662.199272</v>
       </c>
-      <c r="L107" s="52" t="s">
+      <c r="L107" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="M107" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="M107" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="N107" s="54">
+      <c r="N107" s="50">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G108" s="51">
+      <c r="G108" s="47">
         <f t="shared" ref="G108:I108" si="9">G107+G106</f>
         <v>676882897.20404243</v>
       </c>
-      <c r="H108" s="51">
+      <c r="H108" s="47">
         <f t="shared" si="9"/>
         <v>922802375.28643203</v>
       </c>
-      <c r="I108" s="51">
+      <c r="I108" s="47">
         <f t="shared" si="9"/>
         <v>1258067277.7400401</v>
       </c>
-      <c r="J108" s="51">
+      <c r="J108" s="47">
         <f>J107+J106</f>
         <v>1715137842.8441567</v>
       </c>
-      <c r="K108" s="51">
+      <c r="K108" s="47">
         <f>K107+K106</f>
         <v>50706340155.524826</v>
       </c>
-      <c r="L108" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="M108" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="N108" s="56">
+      <c r="L108" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="M108" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="N108" s="52">
         <f>N105</f>
         <v>7.4551781758957422E-2</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="57" t="s">
+      <c r="G109" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="H109" s="67"/>
+    </row>
+    <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G110" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="H109" s="58"/>
-    </row>
-    <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G110" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="H110" s="45">
+      <c r="H110" s="41">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
         <v>39123184965.792786</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G111" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="H111" s="45">
+      <c r="G111" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="H111" s="41">
         <f>F40</f>
         <v>4007868000</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G112" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="H112" s="45">
+      <c r="G112" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="H112" s="41">
         <f>N99</f>
         <v>251658000</v>
       </c>
     </row>
     <row r="113" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G113" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="H113" s="45">
+      <c r="G113" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="H113" s="41">
         <f>H110+H111-H112</f>
         <v>42879394965.792786</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G114" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="H114" s="60">
+      <c r="G114" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="H114" s="54">
         <f>F34*(1+(5*L16))</f>
         <v>641675501.61867034</v>
       </c>
     </row>
     <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G115" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="H115" s="62">
+      <c r="G115" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="H115" s="56">
         <f>H113/H114</f>
         <v>66.824111030616848</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G116" s="63" t="s">
+      <c r="G116" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="H116" s="58">
+        <v>135.47</v>
+      </c>
+    </row>
+    <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G117" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="H116" s="64">
-        <v>135.47</v>
-      </c>
-    </row>
-    <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G117" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="H117" s="66">
+      <c r="H117" s="60">
         <f>H115/H116-1</f>
         <v>-0.50672391650832771</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G118" s="65" t="s">
-        <v>159</v>
-      </c>
-      <c r="H118" s="67" t="str">
+      <c r="G118" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="H118" s="61" t="str">
         <f>IF(H115&gt;H116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G109:H109"/>
     <mergeCell ref="M83:N83"/>
     <mergeCell ref="M84:N84"/>
     <mergeCell ref="M93:N93"/>
     <mergeCell ref="M98:N98"/>
     <mergeCell ref="M104:N104"/>
-    <mergeCell ref="G109:H109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/SNOW" display="ROIC.AI | SNOW" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Software/Snowflake.xlsx
+++ b/Software/Snowflake.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Negative FCF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3DCAA9-CD44-4E44-81F9-8EE58207A3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEC4D97-58FE-6142-8194-5445205457AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28740" yWindow="500" windowWidth="22460" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -317,9 +354,6 @@
     <t>link</t>
   </si>
   <si>
-    <t>Snowflake</t>
-  </si>
-  <si>
     <t>Revenue Growth YoY</t>
   </si>
   <si>
@@ -512,21 +546,22 @@
     <t>Buy/Sell</t>
   </si>
   <si>
-    <t>Shares + Dilution</t>
-  </si>
-  <si>
     <t>Share Dilution (4yr)</t>
+  </si>
+  <si>
+    <t>Shares (No dilution)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -858,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -934,13 +969,8 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -971,17 +1001,21 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -995,12 +1029,7 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="171" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2077,6 +2106,441 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bvlqa2&amp;q=XNYS%3aSNOW&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>SNOWFLAKE INC. (XNYS:SNOW)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>bvlqa2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>222</v>
+    <v>110.265</v>
+    <v>1.583</v>
+    <v>-0.8</v>
+    <v>-5.4610000000000006E-3</v>
+    <v>-0.68</v>
+    <v>-4.6680000000000003E-3</v>
+    <v>USD</v>
+    <v>Snowflake Inc. is a cloud data platform provider. The Company’s platform enables customers to consolidate data into a single source to drive business insights, build data-driven applications and share data. The Company’s platform supports a multi-cloud strategy, including a cross-cloud approach to mix and match clouds. Its platform unifies data and supports a variety of workloads, including data warehousing, data lakes, data engineering, data science, data application development, and data sharing. The Company provides an integrated, end-to-end solution that delivers insights, data transformations, and data sharing. The Company, by leveraging the performance of the public cloud, its platform enables customers to unify and query data to support a variety of use cases. It also provides frictionless and governed data access so users can securely share data inside and outside of their organizations, generally without copying or moving the underlying data.</v>
+    <v>5884</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>106 East Babcock Street, Suite 3A, BOZEMAN, MT, 59715 US</v>
+    <v>146.06</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45022.999990682816</v>
+    <v>0</v>
+    <v>140.88</v>
+    <v>47346000000</v>
+    <v>SNOWFLAKE INC.</v>
+    <v>SNOWFLAKE INC.</v>
+    <v>144.59</v>
+    <v>146.47999999999999</v>
+    <v>145.68</v>
+    <v>145</v>
+    <v>325000000</v>
+    <v>SNOW</v>
+    <v>SNOWFLAKE INC. (XNYS:SNOW)</v>
+    <v>3326902</v>
+    <v>6298651</v>
+    <v>2012</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="44">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2377,10 +2841,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J76" sqref="J76"/>
+      <selection pane="bottomRight" activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2391,8 +2855,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2019</v>
@@ -2495,21 +2959,21 @@
         <v>9703000000</v>
       </c>
       <c r="L3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="N3" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="O3" s="20" t="s">
         <v>112</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -2622,16 +3086,16 @@
         <v>1348119000</v>
       </c>
       <c r="L6" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="N6" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="O6" s="20" t="s">
         <v>116</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -2692,7 +3156,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -2717,16 +3181,16 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="L9" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="N9" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="O9" s="20" t="s">
         <v>99</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -2805,21 +3269,21 @@
         <v>1402328000</v>
       </c>
       <c r="L12" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="N12" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="O12" s="20" t="s">
         <v>120</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -2900,16 +3364,16 @@
         <v>2190386000</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M15" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="O15" s="20" t="s">
         <v>123</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -2937,15 +3401,15 @@
       </c>
       <c r="M16" s="31">
         <f>N101/F3</f>
-        <v>20.902943370614413</v>
+        <v>22.920530445731846</v>
       </c>
       <c r="N16" s="31">
         <f>N101/F28</f>
-        <v>-54.196161816481634</v>
+        <v>-59.427266052051891</v>
       </c>
       <c r="O16" s="32">
         <f>N101/F106</f>
-        <v>86.965639608538993</v>
+        <v>95.359708680178613</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -2988,7 +3452,7 @@
         <v>67032000</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -3017,7 +3481,7 @@
     </row>
     <row r="20" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3199,7 +3663,7 @@
     </row>
     <row r="29" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -3321,7 +3785,7 @@
     </row>
     <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="23">
@@ -4223,7 +4687,7 @@
     </row>
     <row r="80" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15">
         <f t="shared" ref="B80:F80" si="6">B79/B3</f>
@@ -4305,10 +4769,10 @@
       <c r="F83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M83" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="N83" s="63"/>
+      <c r="M83" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="N83" s="62"/>
     </row>
     <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4329,10 +4793,10 @@
       <c r="F84" s="1">
         <v>8024000</v>
       </c>
-      <c r="M84" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="N84" s="65"/>
+      <c r="M84" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="N84" s="64"/>
     </row>
     <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4354,7 +4818,7 @@
         <v>92</v>
       </c>
       <c r="M85" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N85" s="25">
         <f>F17</f>
@@ -4381,7 +4845,7 @@
         <v>92</v>
       </c>
       <c r="M86" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N86" s="25">
         <f>F56</f>
@@ -4408,7 +4872,7 @@
         <v>545639000</v>
       </c>
       <c r="M87" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N87" s="25">
         <f>F61</f>
@@ -4435,7 +4899,7 @@
         <v>-25128000</v>
       </c>
       <c r="M88" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N88" s="35">
         <f>N85/(N86+N87)</f>
@@ -4444,7 +4908,7 @@
     </row>
     <row r="89" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="15">
         <f t="shared" ref="B89:F89" si="7">(-1*B88)/B3</f>
@@ -4467,7 +4931,7 @@
         <v>1.2164640920887716E-2</v>
       </c>
       <c r="M89" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N89" s="25">
         <f>F27</f>
@@ -4521,7 +4985,7 @@
         <v>-3854886000</v>
       </c>
       <c r="M91" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N91" s="35">
         <f>N89/N90</f>
@@ -4548,7 +5012,7 @@
         <v>3715885000</v>
       </c>
       <c r="M92" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N92" s="37">
         <f>N88*(1-N91)</f>
@@ -4574,10 +5038,10 @@
       <c r="F93" s="1">
         <v>-71147000</v>
       </c>
-      <c r="M93" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="N93" s="65"/>
+      <c r="M93" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="N93" s="64"/>
     </row>
     <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4599,7 +5063,7 @@
         <v>-597885000</v>
       </c>
       <c r="M94" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N94" s="38">
         <v>4.095E-2</v>
@@ -4624,11 +5088,12 @@
       <c r="F95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M95" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="N95" s="40">
-        <v>0.75</v>
+      <c r="M95" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="N95" s="58" cm="1">
+        <f t="array" ref="N95">_FV(A1,"Beta")</f>
+        <v>1.583</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -4651,7 +5116,7 @@
         <v>92</v>
       </c>
       <c r="M96" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N96" s="38">
         <v>8.4000000000000005E-2</v>
@@ -4677,11 +5142,11 @@
         <v>92</v>
       </c>
       <c r="M97" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N97" s="37">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>7.3237500000000011E-2</v>
+        <v>0.10909815</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4703,10 +5168,10 @@
       <c r="F98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M98" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="N98" s="65"/>
+      <c r="M98" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="N98" s="64"/>
     </row>
     <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -4728,7 +5193,7 @@
         <v>-92624000</v>
       </c>
       <c r="M99" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N99" s="25">
         <f>N86+N87</f>
@@ -4755,11 +5220,11 @@
         <v>-92624000</v>
       </c>
       <c r="M100" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N100" s="35">
         <f>N99/N103</f>
-        <v>5.7945644872285105E-3</v>
+        <v>5.2871929118865468E-3</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -4782,11 +5247,11 @@
         <v>-933000</v>
       </c>
       <c r="M101" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="N101" s="41">
-        <f>H116*F34</f>
-        <v>43178353100</v>
+        <v>141</v>
+      </c>
+      <c r="N101" s="39" cm="1">
+        <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
+        <v>47346000000</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -4809,11 +5274,11 @@
         <v>-145803000</v>
       </c>
       <c r="M102" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N102" s="35">
         <f>N101/N103</f>
-        <v>0.99420543551277152</v>
+        <v>0.99471280708811349</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -4836,11 +5301,11 @@
         <v>1102534000</v>
       </c>
       <c r="M103" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="N103" s="42">
+        <v>143</v>
+      </c>
+      <c r="N103" s="40">
         <f>N99+N101</f>
-        <v>43430011100</v>
+        <v>47597658000</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4862,14 +5327,14 @@
       <c r="F104" s="11">
         <v>956731000</v>
       </c>
-      <c r="M104" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="N104" s="65"/>
+      <c r="M104" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="N104" s="64"/>
     </row>
     <row r="105" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15">
@@ -4895,11 +5360,11 @@
       <c r="K105" s="15"/>
       <c r="L105" s="15"/>
       <c r="M105" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N105" s="27">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>7.4551781758957422E-2</v>
+        <v>0.11010775118504881</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4921,33 +5386,33 @@
       <c r="F106" s="1">
         <v>496499000</v>
       </c>
-      <c r="G106" s="43">
+      <c r="G106" s="56">
         <f>F106*(1+$N$106)</f>
         <v>676882897.20404243</v>
       </c>
-      <c r="H106" s="43">
+      <c r="H106" s="56">
         <f t="shared" ref="H106:K106" si="8">G106*(1+$N$106)</f>
         <v>922802375.28643203</v>
       </c>
-      <c r="I106" s="43">
+      <c r="I106" s="56">
         <f t="shared" si="8"/>
         <v>1258067277.7400401</v>
       </c>
-      <c r="J106" s="43">
+      <c r="J106" s="56">
         <f t="shared" si="8"/>
         <v>1715137842.8441567</v>
       </c>
-      <c r="K106" s="43">
+      <c r="K106" s="56">
         <f t="shared" si="8"/>
         <v>2338267493.3255544</v>
       </c>
-      <c r="L106" s="44" t="s">
+      <c r="L106" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="M106" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="M106" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="N106" s="46">
+      <c r="N106" s="43">
         <f>(SUM(G4:K4)/5)</f>
         <v>0.36331170295215576</v>
       </c>
@@ -4959,138 +5424,139 @@
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
-      <c r="G107" s="44"/>
-      <c r="H107" s="44"/>
-      <c r="I107" s="44"/>
-      <c r="J107" s="44"/>
-      <c r="K107" s="47">
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="41"/>
+      <c r="K107" s="44">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>48368072662.199272</v>
-      </c>
-      <c r="L107" s="48" t="s">
+        <v>28161056393.647655</v>
+      </c>
+      <c r="L107" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="M107" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="M107" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="N107" s="50">
+      <c r="N107" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G108" s="47">
+      <c r="G108" s="44">
         <f t="shared" ref="G108:I108" si="9">G107+G106</f>
         <v>676882897.20404243</v>
       </c>
-      <c r="H108" s="47">
+      <c r="H108" s="44">
         <f t="shared" si="9"/>
         <v>922802375.28643203</v>
       </c>
-      <c r="I108" s="47">
+      <c r="I108" s="44">
         <f t="shared" si="9"/>
         <v>1258067277.7400401</v>
       </c>
-      <c r="J108" s="47">
+      <c r="J108" s="44">
         <f>J107+J106</f>
         <v>1715137842.8441567</v>
       </c>
-      <c r="K108" s="47">
+      <c r="K108" s="44">
         <f>K107+K106</f>
-        <v>50706340155.524826</v>
-      </c>
-      <c r="L108" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="M108" s="51" t="s">
+        <v>30499323886.973209</v>
+      </c>
+      <c r="L108" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="M108" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="N108" s="49">
+        <f>N105</f>
+        <v>0.11010775118504881</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="G109" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="N108" s="52">
-        <f>N105</f>
-        <v>7.4551781758957422E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="66" t="s">
+      <c r="H109" s="60"/>
+    </row>
+    <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G110" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="H109" s="67"/>
-    </row>
-    <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G110" s="53" t="s">
+      <c r="H110" s="39">
+        <f>NPV(N108,G108,H108,I108,J108,K108)</f>
+        <v>21498644656.65678</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G111" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="H110" s="41">
-        <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>39123184965.792786</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G111" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="H111" s="41">
+      <c r="H111" s="39">
         <f>F40</f>
         <v>4007868000</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G112" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="H112" s="41">
+      <c r="G112" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="H112" s="39">
         <f>N99</f>
         <v>251658000</v>
       </c>
     </row>
     <row r="113" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G113" s="53" t="s">
+      <c r="G113" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="H113" s="39">
+        <f>H110+H111-H112</f>
+        <v>25254854656.65678</v>
+      </c>
+    </row>
+    <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G114" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="H114" s="51" cm="1">
+        <f t="array" ref="H114">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>325000000</v>
+      </c>
+    </row>
+    <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G115" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="H113" s="41">
-        <f>H110+H111-H112</f>
-        <v>42879394965.792786</v>
-      </c>
-    </row>
-    <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G114" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="H114" s="54">
-        <f>F34*(1+(5*L16))</f>
-        <v>641675501.61867034</v>
-      </c>
-    </row>
-    <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G115" s="55" t="s">
+      <c r="H115" s="65">
+        <f>H113/H114</f>
+        <v>77.707245097405476</v>
+      </c>
+    </row>
+    <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G116" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="H115" s="56">
-        <f>H113/H114</f>
-        <v>66.824111030616848</v>
-      </c>
-    </row>
-    <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G116" s="57" t="s">
+      <c r="H116" s="57" cm="1">
+        <f t="array" ref="H116">_FV(A1,"Price")</f>
+        <v>145.68</v>
+      </c>
+    </row>
+    <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G117" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="H116" s="58">
-        <v>135.47</v>
-      </c>
-    </row>
-    <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G117" s="59" t="s">
+      <c r="H117" s="54">
+        <f>H115/H116-1</f>
+        <v>-0.46658947626712333</v>
+      </c>
+    </row>
+    <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G118" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="H117" s="60">
-        <f>H115/H116-1</f>
-        <v>-0.50672391650832771</v>
-      </c>
-    </row>
-    <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G118" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="H118" s="61" t="str">
+      <c r="H118" s="55" t="str">
         <f>IF(H115&gt;H116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
